--- a/data/trans_dic/P57GLOBAL_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7781185586683083</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4781430834951216</v>
+        <v>0.4781430834951217</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6317453661931293</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5662523695592854</v>
+        <v>0.5686061419148246</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5648983512658008</v>
+        <v>0.5640266681269345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7319259384925764</v>
+        <v>0.7376013600151859</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.405094148169205</v>
+        <v>0.3968142369397309</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.583267075442266</v>
+        <v>0.5882872219176367</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6128178551023344</v>
+        <v>0.6155886676207489</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7543244806123937</v>
+        <v>0.7490988646668152</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4466872487667785</v>
+        <v>0.445139944639467</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5880573208519445</v>
+        <v>0.5886449918632336</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6013026427058082</v>
+        <v>0.5992281288150445</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7561234767548647</v>
+        <v>0.7568670628158707</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4447782890423131</v>
+        <v>0.442591126136487</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6541216519569596</v>
+        <v>0.6594231683959678</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6608315228633573</v>
+        <v>0.6572667103044882</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8158382499682819</v>
+        <v>0.8153766361169809</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5595882091542488</v>
+        <v>0.5572767611716273</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6733368094703984</v>
+        <v>0.6715884117376926</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7066854893599045</v>
+        <v>0.7079287005169331</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.832622217890248</v>
+        <v>0.8323845183389488</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.584454841673851</v>
+        <v>0.5869270083598668</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6491167385901844</v>
+        <v>0.6512304550085902</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6677576194172591</v>
+        <v>0.6671150764960683</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8121540651434104</v>
+        <v>0.8131565068352968</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5528772680587966</v>
+        <v>0.5467649367612119</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8156253986632691</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.64314370292094</v>
+        <v>0.6431437029209399</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.693231182165762</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.642391674962595</v>
+        <v>0.6472295729591451</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6183215725338136</v>
+        <v>0.6150367750587687</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7810131205217891</v>
+        <v>0.7843233090149201</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5870301969515518</v>
+        <v>0.5816001989037664</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6527767754167857</v>
+        <v>0.6539916529890023</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6922406631846414</v>
+        <v>0.6898822326099776</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.77976574636582</v>
+        <v>0.7761682521570963</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5157426139938748</v>
+        <v>0.5217529483007706</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6594424707264734</v>
+        <v>0.6589596948957006</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.65797358791736</v>
+        <v>0.6626706093547199</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7883898577354724</v>
+        <v>0.7912526982483646</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.566533892412318</v>
+        <v>0.5679452367647113</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7148916576106945</v>
+        <v>0.7137342368243285</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6908065620050706</v>
+        <v>0.6891051695486753</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8456053773159865</v>
+        <v>0.8453064570394764</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7024144699316903</v>
+        <v>0.6931826936373066</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7330665781950485</v>
+        <v>0.7289708892379831</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7633697573763573</v>
+        <v>0.7645403838701121</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8433683036802155</v>
+        <v>0.8432596647311232</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6134694123705333</v>
+        <v>0.6122981713720805</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7097586257118964</v>
+        <v>0.7088514416788041</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7125519499601779</v>
+        <v>0.7146674778133617</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8326545839819244</v>
+        <v>0.8356581469151475</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6412988855317365</v>
+        <v>0.6400232971812115</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.8263118960987579</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.6258013814085147</v>
+        <v>0.6258013814085146</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.7076912835581964</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6667758020224549</v>
+        <v>0.6622823213188477</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.678206421211094</v>
+        <v>0.6774340278632348</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7933958055674635</v>
+        <v>0.7902750748135472</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6112000348393667</v>
+        <v>0.6131985633301411</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6685624209711488</v>
+        <v>0.6785281520944987</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7236331359660872</v>
+        <v>0.7204469440330304</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7945333128968953</v>
+        <v>0.7960933373906335</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5898922374632894</v>
+        <v>0.5921200616251054</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6824318664847203</v>
+        <v>0.682041845887976</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7083368546378646</v>
+        <v>0.7133054904577255</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8028905324049963</v>
+        <v>0.802672663953804</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6145086367517021</v>
+        <v>0.613012392054706</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7383620327552463</v>
+        <v>0.7378350197148447</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7479582785374389</v>
+        <v>0.7513915273263518</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8532800257851235</v>
+        <v>0.8510777328615453</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6930865573267931</v>
+        <v>0.69573848315783</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7436435065905147</v>
+        <v>0.7465891452446713</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7891572381139611</v>
+        <v>0.7870793028217733</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8545295077991425</v>
+        <v>0.8538714236360584</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6602210910136823</v>
+        <v>0.6589647415503589</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7321735677772528</v>
+        <v>0.7317288055644959</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7609366590781845</v>
+        <v>0.7617622615179278</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8460476065129336</v>
+        <v>0.8452448565263275</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6656961724281989</v>
+        <v>0.6656864573337089</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.8238718647580884</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6382254296791176</v>
+        <v>0.6382254296791177</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7127384227884657</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6892843549635564</v>
+        <v>0.6900328746911848</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.665174275307865</v>
+        <v>0.6665475614881416</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7891361274533362</v>
+        <v>0.7876338738374045</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6015574068809554</v>
+        <v>0.6010132982693109</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.674307466152278</v>
+        <v>0.6742614628576201</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.767121066666648</v>
+        <v>0.7623064240704369</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8242514010880801</v>
+        <v>0.8219707729360467</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6312421792383243</v>
+        <v>0.632118429820784</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6906470829595073</v>
+        <v>0.6930638594538642</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7300325504776543</v>
+        <v>0.7311694001646081</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8171342505940351</v>
+        <v>0.8184597523914282</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.626262832036489</v>
+        <v>0.6251191690204646</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7688624739868226</v>
+        <v>0.7677351730435595</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7464125444297838</v>
+        <v>0.745652258877033</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8542096060448736</v>
+        <v>0.8530046304019607</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6781338271094774</v>
+        <v>0.6758107089875147</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7519306641836599</v>
+        <v>0.7546213158654722</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8354395178264523</v>
+        <v>0.8308248722118059</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8793357818415446</v>
+        <v>0.8787658659712885</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6869834941330166</v>
+        <v>0.6864288482658579</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7497385561316473</v>
+        <v>0.7492171063156883</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7812452108632268</v>
+        <v>0.7844617407078168</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8606798200651882</v>
+        <v>0.8609252555394834</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6733841405253322</v>
+        <v>0.6714062699174161</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.8691015283400716</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.7312202406213478</v>
+        <v>0.7312202406213477</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7493620507091979</v>
@@ -1241,7 +1241,7 @@
         <v>0.8529287087243125</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.710717367089143</v>
+        <v>0.7107173670891431</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6770276103417133</v>
+        <v>0.6772248797881242</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6217996013088477</v>
+        <v>0.6220408821334126</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7999378942950102</v>
+        <v>0.8028041809880362</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6517765911437808</v>
+        <v>0.6533488335841661</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.731137474905906</v>
+        <v>0.7349643178747968</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7035420172160394</v>
+        <v>0.7063341540858432</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8345804836628851</v>
+        <v>0.8362451082438382</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7008925247961532</v>
+        <v>0.7022796010811458</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.715203636029515</v>
+        <v>0.7189495874479176</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6794209854742477</v>
+        <v>0.6765721794427146</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8271747546581112</v>
+        <v>0.8271853636472546</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6867975528265713</v>
+        <v>0.689578806584679</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7646242722422573</v>
+        <v>0.7678706286674268</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7166334929656888</v>
+        <v>0.719022142230215</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8681215405873914</v>
+        <v>0.8738493097191744</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7246717773892822</v>
+        <v>0.7283495430624403</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8147859427241471</v>
+        <v>0.8164115098599408</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7882227993956783</v>
+        <v>0.7929405576598362</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8991856495120122</v>
+        <v>0.8983827857902071</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7559857824643966</v>
+        <v>0.7583106047277142</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7764804103018444</v>
+        <v>0.7812300803165604</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7446253920858373</v>
+        <v>0.7418641394661283</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8760028198483296</v>
+        <v>0.8751772367222757</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7352407626817494</v>
+        <v>0.734820771382002</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.9009185609713825</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.6776614494748601</v>
+        <v>0.67766144947486</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.7819998792972011</v>
@@ -1377,7 +1377,7 @@
         <v>0.8559220922912116</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.6755987174584517</v>
+        <v>0.6755987174584516</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7285765706889955</v>
+        <v>0.7273878361752465</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6869268504004076</v>
+        <v>0.6932417240379967</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7588863340743565</v>
+        <v>0.757732579331715</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6351698670291488</v>
+        <v>0.6315812568805982</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7392080784366507</v>
+        <v>0.7407394355675855</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7275293301201351</v>
+        <v>0.7335941248387828</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8662477799603</v>
+        <v>0.8654426256071832</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.6432591054515047</v>
+        <v>0.6421062767919042</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.749826271688091</v>
+        <v>0.7488030379604853</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7282947626811387</v>
+        <v>0.7267524490128842</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.8299762705917568</v>
+        <v>0.8283642323779047</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.6512567171920918</v>
+        <v>0.6499789289821694</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8224368702829032</v>
+        <v>0.8228223093036124</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7926791223399894</v>
+        <v>0.7949504888649251</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8455405855729037</v>
+        <v>0.8482898540102073</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7113941900015783</v>
+        <v>0.7138587268491783</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8203763540059278</v>
+        <v>0.8257599864366615</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8149090509103504</v>
+        <v>0.8199506017863976</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9265765177182641</v>
+        <v>0.9299669802028659</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.7082305128734834</v>
+        <v>0.7063170234062709</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8120912350836983</v>
+        <v>0.8119036656935864</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7946557998036015</v>
+        <v>0.7945315778792685</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.8827074351934552</v>
+        <v>0.8812120497780963</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.7021152506717332</v>
+        <v>0.7003707557932629</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.8563409515161617</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.7255905290483976</v>
+        <v>0.7255905290483978</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.8201808287260314</v>
@@ -1513,7 +1513,7 @@
         <v>0.8828721463289652</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.7434975270018898</v>
+        <v>0.7434975270018899</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7522405482679009</v>
+        <v>0.7540373808758638</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7099359039442111</v>
+        <v>0.7195547152596485</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8126502123540448</v>
+        <v>0.8152057857327415</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6841073744540574</v>
+        <v>0.6789326334859115</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7743953335371198</v>
+        <v>0.7764081296516933</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7445743860954073</v>
+        <v>0.7472567218193389</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8621345020921189</v>
+        <v>0.86217330377894</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7237137111762743</v>
+        <v>0.72422009833847</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7804523689609152</v>
+        <v>0.7856132601302466</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.7476677370653019</v>
+        <v>0.7481760684337084</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.8520566317155231</v>
+        <v>0.851421009228391</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.7192737927642209</v>
+        <v>0.7181245567052031</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.859056747777748</v>
+        <v>0.8582528500796193</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8255336182120584</v>
+        <v>0.8277299985817185</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8949052675634369</v>
+        <v>0.8911946448372587</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7730100180026175</v>
+        <v>0.7665412515234671</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8610899101396849</v>
+        <v>0.8622458040522316</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8372688358850235</v>
+        <v>0.831374947784452</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9294574963560677</v>
+        <v>0.9313630477035713</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.784808683446472</v>
+        <v>0.7846860800782302</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8488593245508539</v>
+        <v>0.8494869262650488</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.8190805936124753</v>
+        <v>0.8185584711836501</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9066764155767713</v>
+        <v>0.9060458556363813</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.7690686463143416</v>
+        <v>0.7661758407092151</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.8478768768914284</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.6531773864581415</v>
+        <v>0.6531773864581414</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.7137582014626049</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6883563924830234</v>
+        <v>0.688443060098694</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.672309632892565</v>
+        <v>0.6731231967056954</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8060737342628306</v>
+        <v>0.8050853468678122</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.6245911562373818</v>
+        <v>0.6235266547119697</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.7075089307105324</v>
+        <v>0.7083042491732718</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.7372628323337158</v>
+        <v>0.7368957849215302</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.8362497679261964</v>
+        <v>0.8348504443008191</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.6391457221643948</v>
+        <v>0.6380684252720714</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.701609028763891</v>
+        <v>0.7021312293361965</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.7098663499642206</v>
+        <v>0.7106763472629843</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.8246248718989744</v>
+        <v>0.8241038085445173</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.6364295694983511</v>
+        <v>0.6368622459084096</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7199601744754434</v>
+        <v>0.720564399926435</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.704064408406783</v>
+        <v>0.7052084031844551</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.833496925025938</v>
+        <v>0.831693634732894</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.6606664978627604</v>
+        <v>0.6627552828603717</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.739090811669768</v>
+        <v>0.7372627195006702</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7666616446995475</v>
+        <v>0.7668678618433383</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.8606141705675163</v>
+        <v>0.8598981195037871</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.6694325958565666</v>
+        <v>0.6668319240651485</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7249838697388113</v>
+        <v>0.7254719673238966</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.7334748714646159</v>
+        <v>0.7313434982175663</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.8423180109910781</v>
+        <v>0.842430110436286</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.6610489075515249</v>
+        <v>0.6599590698399581</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>279291</v>
+        <v>280452</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>253219</v>
+        <v>252828</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>307016</v>
+        <v>309396</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>163369</v>
+        <v>160030</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>272671</v>
+        <v>275018</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>261853</v>
+        <v>263037</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>297802</v>
+        <v>295739</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>158402</v>
+        <v>157854</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>564956</v>
+        <v>565521</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>526470</v>
+        <v>524654</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>615678</v>
+        <v>616284</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>337099</v>
+        <v>335442</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>322630</v>
+        <v>325245</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>296221</v>
+        <v>294623</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>342214</v>
+        <v>342020</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>225675</v>
+        <v>224742</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>314778</v>
+        <v>313960</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>301962</v>
+        <v>302494</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>328713</v>
+        <v>328620</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>207257</v>
+        <v>208134</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>623617</v>
+        <v>625648</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>584655</v>
+        <v>584092</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>661301</v>
+        <v>662118</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>419028</v>
+        <v>414395</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>472472</v>
+        <v>476030</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>420376</v>
+        <v>418143</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>453305</v>
+        <v>455227</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>278303</v>
+        <v>275729</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>406907</v>
+        <v>407664</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>420954</v>
+        <v>419519</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>436079</v>
+        <v>434067</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>255983</v>
+        <v>258966</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>896075</v>
+        <v>895419</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>847450</v>
+        <v>853499</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>898489</v>
+        <v>901752</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>549779</v>
+        <v>551149</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>525795</v>
+        <v>524944</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>469656</v>
+        <v>468499</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>490795</v>
+        <v>490622</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>333005</v>
+        <v>328628</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>456956</v>
+        <v>454403</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>464207</v>
+        <v>464919</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>471649</v>
+        <v>471588</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>304489</v>
+        <v>303907</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>964446</v>
+        <v>963214</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>917745</v>
+        <v>920470</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>948936</v>
+        <v>952359</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>622333</v>
+        <v>621095</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>425125</v>
+        <v>422260</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>459042</v>
+        <v>458519</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>530172</v>
+        <v>528086</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>373225</v>
+        <v>374445</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>460482</v>
+        <v>467346</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>509062</v>
+        <v>506821</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>516596</v>
+        <v>517610</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>364829</v>
+        <v>366207</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>905141</v>
+        <v>904624</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>977736</v>
+        <v>984595</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1058546</v>
+        <v>1058259</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>755299</v>
+        <v>753460</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>470767</v>
+        <v>470431</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>506253</v>
+        <v>508577</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>570188</v>
+        <v>568717</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>423228</v>
+        <v>424848</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>512195</v>
+        <v>514224</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>555157</v>
+        <v>553695</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>555605</v>
+        <v>555177</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>408325</v>
+        <v>407548</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>971116</v>
+        <v>970526</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1050341</v>
+        <v>1051481</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1115445</v>
+        <v>1114387</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>818214</v>
+        <v>818202</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>356772</v>
+        <v>357159</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>404747</v>
+        <v>405582</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>504192</v>
+        <v>503232</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>414383</v>
+        <v>414008</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>347701</v>
+        <v>347678</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>468223</v>
+        <v>465284</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>530239</v>
+        <v>528772</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>456265</v>
+        <v>456898</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>713604</v>
+        <v>716101</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>889797</v>
+        <v>891183</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1047741</v>
+        <v>1049441</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>884067</v>
+        <v>882453</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>397961</v>
+        <v>397377</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>454179</v>
+        <v>453716</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>545768</v>
+        <v>544998</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>467132</v>
+        <v>465532</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>387727</v>
+        <v>389114</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>509922</v>
+        <v>507106</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>565675</v>
+        <v>565308</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>496555</v>
+        <v>496154</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>774659</v>
+        <v>774120</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>952218</v>
+        <v>956138</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1103576</v>
+        <v>1103890</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>950586</v>
+        <v>947794</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>261242</v>
+        <v>261318</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>263757</v>
+        <v>263859</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>377983</v>
+        <v>379338</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>392652</v>
+        <v>393600</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>295369</v>
+        <v>296915</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>312881</v>
+        <v>314123</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>408958</v>
+        <v>409773</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>415943</v>
+        <v>416766</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>564905</v>
+        <v>567864</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>590354</v>
+        <v>587878</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>796181</v>
+        <v>796192</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>821328</v>
+        <v>824654</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>295043</v>
+        <v>296295</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>303984</v>
+        <v>304997</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>410201</v>
+        <v>412908</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>436567</v>
+        <v>438783</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>329162</v>
+        <v>329819</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>350541</v>
+        <v>352639</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>440615</v>
+        <v>440222</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>448637</v>
+        <v>450017</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>613305</v>
+        <v>617056</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>647010</v>
+        <v>644611</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>843180</v>
+        <v>842385</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>879260</v>
+        <v>878758</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>211893</v>
+        <v>211548</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>208205</v>
+        <v>210119</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>252197</v>
+        <v>251813</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>255563</v>
+        <v>254119</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>253500</v>
+        <v>254025</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>252816</v>
+        <v>254924</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>323720</v>
+        <v>323419</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>274447</v>
+        <v>273955</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>475214</v>
+        <v>474566</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>473826</v>
+        <v>472823</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>585987</v>
+        <v>584849</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>539894</v>
+        <v>538835</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>239191</v>
+        <v>239303</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>240258</v>
+        <v>240946</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>280994</v>
+        <v>281908</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>286232</v>
+        <v>287223</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>281335</v>
+        <v>283181</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>283181</v>
+        <v>284933</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>346265</v>
+        <v>347532</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>302167</v>
+        <v>301351</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>514676</v>
+        <v>514557</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>517001</v>
+        <v>516920</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>623217</v>
+        <v>622161</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>582056</v>
+        <v>580610</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>157883</v>
+        <v>158260</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>174376</v>
+        <v>176738</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>208147</v>
+        <v>208801</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>203610</v>
+        <v>202069</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>258577</v>
+        <v>259249</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>284009</v>
+        <v>285032</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>342717</v>
+        <v>342733</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>325877</v>
+        <v>326105</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>424403</v>
+        <v>427209</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>468833</v>
+        <v>469151</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>556951</v>
+        <v>556536</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>537954</v>
+        <v>537094</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>180301</v>
+        <v>180133</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>202769</v>
+        <v>203309</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>229215</v>
+        <v>228264</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>230069</v>
+        <v>228144</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>287525</v>
+        <v>287911</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>319366</v>
+        <v>317118</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>369480</v>
+        <v>370237</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>353388</v>
+        <v>353332</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>461602</v>
+        <v>461943</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>513613</v>
+        <v>513285</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>592654</v>
+        <v>592241</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>575196</v>
+        <v>573032</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2251253</v>
+        <v>2251537</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2276677</v>
+        <v>2279432</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2714850</v>
+        <v>2711521</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2173128</v>
+        <v>2169424</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2388600</v>
+        <v>2391285</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2597305</v>
+        <v>2596012</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2934203</v>
+        <v>2929293</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2340942</v>
+        <v>2336996</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>4663278</v>
+        <v>4666749</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>4904648</v>
+        <v>4910244</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>5670744</v>
+        <v>5667161</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>4545311</v>
+        <v>4548401</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2354612</v>
+        <v>2356589</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2384210</v>
+        <v>2388084</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2807211</v>
+        <v>2801138</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2298644</v>
+        <v>2305912</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2495223</v>
+        <v>2489051</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2700875</v>
+        <v>2701601</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>3019692</v>
+        <v>3017180</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>2451871</v>
+        <v>2442346</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>4818640</v>
+        <v>4821884</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>5067765</v>
+        <v>5053039</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>5792415</v>
+        <v>5793186</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>4721139</v>
+        <v>4713356</v>
       </c>
     </row>
     <row r="36">
